--- a/docs/VerifPlans/Simulation/interrupts/CV32E40SX_CLIC.xlsx
+++ b/docs/VerifPlans/Simulation/interrupts/CV32E40SX_CLIC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krdosvik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23298965-2AF0-4E21-8D02-CE9A7987F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F93FB-3503-470C-99C7-2DB491E561D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     Should this and all other assertion checks include assertion coverage?</t>
       </text>
     </comment>
-    <comment ref="B99" authorId="1" shapeId="0" xr:uid="{07A754E4-5049-4597-88FB-936DEA94A796}">
+    <comment ref="B100" authorId="1" shapeId="0" xr:uid="{07A754E4-5049-4597-88FB-936DEA94A796}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="464">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -2898,6 +2898,22 @@
   </si>
   <si>
     <t>clic::invalid_mtvt_ptr_exec_mret, minhv_pma_block.c</t>
+  </si>
+  <si>
+    <t>mret minhv=1</t>
+  </si>
+  <si>
+    <t>CLIC 0.9-draft 12/19/2023</t>
+  </si>
+  <si>
+    <t>DTC: clic :: mret_with_minhv
+clic ::mret_with_minhv_and_unaligned_mepc</t>
+  </si>
+  <si>
+    <t>Run mret when minhv is set. Check that the next instruction to be executed is the address pointed to by the mepc, and check that mepc gets naturally aligned to XLEN/8 byte.</t>
+  </si>
+  <si>
+    <t>"If the xinhv bit is set, the hart resumes the trap handler memory access to retrieve the function pointer for vectoring with permissions corresponding to the previous privilege mode. The trap handler function address is obtained from the current privilege mode’s xepc with the low bits of the address cleared to force the access to be naturally aligned to an XLEN/8-byte table entry."</t>
   </si>
 </sst>
 </file>
@@ -3554,13 +3570,13 @@
   <threadedComment ref="H18" dT="2021-09-09T14:23:41.65" personId="{710810F1-68FD-4BBA-B9D0-AA1628458E0A}" id="{7885884D-C7FD-41BA-8576-33EA399AE858}">
     <text>Should this and all other assertion checks include assertion coverage?</text>
   </threadedComment>
-  <threadedComment ref="B99" dT="2020-09-24T12:42:19.70" personId="{193092B7-7E1F-4488-B1DA-C3EB0981CF6E}" id="{07A754E4-5049-4597-88FB-936DEA94A796}" done="1">
+  <threadedComment ref="B100" dT="2020-09-24T12:42:19.70" personId="{193092B7-7E1F-4488-B1DA-C3EB0981CF6E}" id="{07A754E4-5049-4597-88FB-936DEA94A796}" done="1">
     <text>General comment for all the "Interrupt Instruction" features in this DV plan.  This is important and will produce a large, difficult to fill functional coverage model.  Is there a way to use FV to provide exhaustive coverage of this?</text>
   </threadedComment>
-  <threadedComment ref="B99" dT="2020-09-29T20:07:02.50" personId="{6EF99FC1-4767-4199-A11C-C305DAB2F1C1}" id="{070C2FA9-EF36-4F23-8066-54666C7B105F}" parentId="{07A754E4-5049-4597-88FB-936DEA94A796}">
+  <threadedComment ref="B100" dT="2020-09-29T20:07:02.50" personId="{6EF99FC1-4767-4199-A11C-C305DAB2F1C1}" id="{070C2FA9-EF36-4F23-8066-54666C7B105F}" parentId="{07A754E4-5049-4597-88FB-936DEA94A796}">
     <text>Coverage reports show all instructions covered here.</text>
   </threadedComment>
-  <threadedComment ref="B99" dT="2020-09-29T23:01:29.17" personId="{6EF99FC1-4767-4199-A11C-C305DAB2F1C1}" id="{AB040D79-0384-4884-9851-B375973FC3A2}" parentId="{07A754E4-5049-4597-88FB-936DEA94A796}">
+  <threadedComment ref="B100" dT="2020-09-29T23:01:29.17" personId="{6EF99FC1-4767-4199-A11C-C305DAB2F1C1}" id="{AB040D79-0384-4884-9851-B375973FC3A2}" parentId="{07A754E4-5049-4597-88FB-936DEA94A796}">
     <text>Will leave of functional coverage as defined here.</text>
   </threadedComment>
 </ThreadedComments>
@@ -3568,12 +3584,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
@@ -4952,7 +4968,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="255" customHeight="1">
+    <row r="48" spans="1:9" ht="267.75" customHeight="1">
       <c r="A48" s="10" t="s">
         <v>36</v>
       </c>
@@ -5706,65 +5722,65 @@
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="71.25">
-      <c r="A74" s="24" t="s">
+    <row r="74" spans="1:9" ht="114">
+      <c r="A74" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="71.25">
+      <c r="A75" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B75" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C75" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D75" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="E74" s="25" t="s">
+      <c r="E75" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F75" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="G74" s="25" t="s">
+      <c r="G75" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H74" s="25" t="s">
+      <c r="H75" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="23" t="s">
+      <c r="I75" s="23" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="114">
-      <c r="A75" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="128.25">
+    <row r="76" spans="1:9" ht="114">
       <c r="A76" s="10" t="s">
         <v>30</v>
       </c>
@@ -5775,10 +5791,10 @@
         <v>228</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F76" s="11" t="s">
         <v>15</v>
@@ -5793,7 +5809,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="114">
+    <row r="77" spans="1:9" ht="128.25">
       <c r="A77" s="10" t="s">
         <v>30</v>
       </c>
@@ -5803,26 +5819,26 @@
       <c r="C77" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D77" s="13" t="s">
-        <v>233</v>
+      <c r="D77" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="28.5">
+    <row r="78" spans="1:9" ht="114">
       <c r="A78" s="10" t="s">
         <v>30</v>
       </c>
@@ -5833,39 +5849,39 @@
         <v>228</v>
       </c>
       <c r="D78" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="28.5">
+      <c r="A79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D79" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E79" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="29.25">
-      <c r="A79" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>239</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>18</v>
@@ -5877,10 +5893,10 @@
         <v>14</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="28.5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="29.25">
       <c r="A80" s="10" t="s">
         <v>36</v>
       </c>
@@ -5888,13 +5904,13 @@
         <v>236</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>18</v>
@@ -5906,10 +5922,10 @@
         <v>14</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="29.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="28.5">
       <c r="A81" s="10" t="s">
         <v>36</v>
       </c>
@@ -5917,13 +5933,13 @@
         <v>236</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F81" s="11" t="s">
         <v>18</v>
@@ -5935,24 +5951,24 @@
         <v>14</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="42.75">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="29.25">
       <c r="A82" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>249</v>
+        <v>36</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>245</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>18</v>
@@ -5964,10 +5980,10 @@
         <v>14</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="57.75">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="42.75">
       <c r="A83" s="10" t="s">
         <v>30</v>
       </c>
@@ -5975,13 +5991,13 @@
         <v>246</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>18</v>
@@ -5993,39 +6009,39 @@
         <v>14</v>
       </c>
       <c r="I83" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="57.75">
+      <c r="A84" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="71.25">
-      <c r="A84" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" s="21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="114.75">
+    <row r="85" spans="1:9" ht="71.25">
       <c r="A85" s="10" t="s">
         <v>36</v>
       </c>
@@ -6033,13 +6049,13 @@
         <v>253</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>15</v>
@@ -6050,11 +6066,11 @@
       <c r="H85" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I85" s="23" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="199.5">
+      <c r="I85" s="21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="114.75">
       <c r="A86" s="10" t="s">
         <v>36</v>
       </c>
@@ -6062,13 +6078,13 @@
         <v>253</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>15</v>
@@ -6080,7 +6096,7 @@
         <v>14</v>
       </c>
       <c r="I86" s="23" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="199.5">
@@ -6091,13 +6107,13 @@
         <v>253</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>15</v>
@@ -6112,7 +6128,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="171">
+    <row r="88" spans="1:9" ht="199.5">
       <c r="A88" s="10" t="s">
         <v>36</v>
       </c>
@@ -6120,13 +6136,13 @@
         <v>253</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>15</v>
@@ -6141,7 +6157,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="114">
+    <row r="89" spans="1:9" ht="171">
       <c r="A89" s="10" t="s">
         <v>36</v>
       </c>
@@ -6149,13 +6165,13 @@
         <v>253</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>15</v>
@@ -6170,7 +6186,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="142.5">
+    <row r="90" spans="1:9" ht="114">
       <c r="A90" s="10" t="s">
         <v>36</v>
       </c>
@@ -6178,13 +6194,13 @@
         <v>253</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F90" s="11" t="s">
         <v>15</v>
@@ -6199,7 +6215,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="156.75">
+    <row r="91" spans="1:9" ht="142.5">
       <c r="A91" s="10" t="s">
         <v>36</v>
       </c>
@@ -6207,13 +6223,13 @@
         <v>253</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F91" s="11" t="s">
         <v>15</v>
@@ -6228,7 +6244,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="128.25">
+    <row r="92" spans="1:9" ht="156.75">
       <c r="A92" s="10" t="s">
         <v>36</v>
       </c>
@@ -6236,13 +6252,13 @@
         <v>253</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>15</v>
@@ -6257,7 +6273,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="199.5">
+    <row r="93" spans="1:9" ht="128.25">
       <c r="A93" s="10" t="s">
         <v>36</v>
       </c>
@@ -6265,13 +6281,13 @@
         <v>253</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F93" s="11" t="s">
         <v>15</v>
@@ -6294,13 +6310,13 @@
         <v>253</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>15</v>
@@ -6315,7 +6331,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="142.5">
+    <row r="95" spans="1:9" ht="199.5">
       <c r="A95" s="10" t="s">
         <v>36</v>
       </c>
@@ -6323,13 +6339,13 @@
         <v>253</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F95" s="11" t="s">
         <v>15</v>
@@ -6344,7 +6360,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="128.25">
+    <row r="96" spans="1:9" ht="142.5">
       <c r="A96" s="10" t="s">
         <v>36</v>
       </c>
@@ -6352,13 +6368,13 @@
         <v>253</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>15</v>
@@ -6373,7 +6389,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="142.5">
+    <row r="97" spans="1:9" ht="128.25">
       <c r="A97" s="10" t="s">
         <v>36</v>
       </c>
@@ -6381,13 +6397,13 @@
         <v>253</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>15</v>
@@ -6402,7 +6418,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="185.25">
+    <row r="98" spans="1:9" ht="142.5">
       <c r="A98" s="10" t="s">
         <v>36</v>
       </c>
@@ -6410,13 +6426,13 @@
         <v>253</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F98" s="11" t="s">
         <v>15</v>
@@ -6431,21 +6447,21 @@
         <v>455</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="29.25">
+    <row r="99" spans="1:9" ht="185.25">
       <c r="A99" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F99" s="11" t="s">
         <v>15</v>
@@ -6456,8 +6472,8 @@
       <c r="H99" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I99" s="21" t="s">
-        <v>440</v>
+      <c r="I99" s="23" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="29.25">
@@ -6468,7 +6484,7 @@
         <v>217</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>300</v>
@@ -6497,7 +6513,7 @@
         <v>217</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>300</v>
@@ -6526,7 +6542,7 @@
         <v>217</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>300</v>
@@ -6555,7 +6571,7 @@
         <v>217</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>300</v>
@@ -6584,7 +6600,7 @@
         <v>217</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>300</v>
@@ -6613,7 +6629,7 @@
         <v>217</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>300</v>
@@ -6634,7 +6650,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="57.75">
+    <row r="106" spans="1:9" ht="29.25">
       <c r="A106" s="10" t="s">
         <v>39</v>
       </c>
@@ -6642,7 +6658,7 @@
         <v>217</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>300</v>
@@ -6660,10 +6676,10 @@
         <v>14</v>
       </c>
       <c r="I106" s="21" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="29.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="57.75">
       <c r="A107" s="10" t="s">
         <v>39</v>
       </c>
@@ -6671,7 +6687,7 @@
         <v>217</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D107" s="11" t="s">
         <v>300</v>
@@ -6688,8 +6704,8 @@
       <c r="H107" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I107" s="23" t="s">
-        <v>454</v>
+      <c r="I107" s="21" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="29.25">
@@ -6700,7 +6716,7 @@
         <v>217</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D108" s="11" t="s">
         <v>300</v>
@@ -6729,7 +6745,7 @@
         <v>217</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>300</v>
@@ -6758,7 +6774,7 @@
         <v>217</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>300</v>
@@ -6787,7 +6803,7 @@
         <v>217</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>300</v>
@@ -6816,7 +6832,7 @@
         <v>217</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>300</v>
@@ -6845,7 +6861,7 @@
         <v>217</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>300</v>
@@ -6874,7 +6890,7 @@
         <v>217</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>300</v>
@@ -6903,7 +6919,7 @@
         <v>217</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>300</v>
@@ -6932,7 +6948,7 @@
         <v>217</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>300</v>
@@ -6961,7 +6977,7 @@
         <v>217</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>300</v>
@@ -6990,7 +7006,7 @@
         <v>217</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D118" s="11" t="s">
         <v>300</v>
@@ -7011,7 +7027,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="57.75">
+    <row r="119" spans="1:9" ht="29.25">
       <c r="A119" s="10" t="s">
         <v>39</v>
       </c>
@@ -7019,7 +7035,7 @@
         <v>217</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>300</v>
@@ -7036,11 +7052,11 @@
       <c r="H119" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I119" s="21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="29.25">
+      <c r="I119" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="57.75">
       <c r="A120" s="10" t="s">
         <v>39</v>
       </c>
@@ -7048,7 +7064,7 @@
         <v>217</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D120" s="11" t="s">
         <v>300</v>
@@ -7066,10 +7082,10 @@
         <v>14</v>
       </c>
       <c r="I120" s="21" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="57.75">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="29.25">
       <c r="A121" s="10" t="s">
         <v>39</v>
       </c>
@@ -7077,7 +7093,7 @@
         <v>217</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>300</v>
@@ -7095,10 +7111,10 @@
         <v>14</v>
       </c>
       <c r="I121" s="21" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="29.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="57.75">
       <c r="A122" s="10" t="s">
         <v>39</v>
       </c>
@@ -7106,7 +7122,7 @@
         <v>217</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>300</v>
@@ -7124,7 +7140,7 @@
         <v>14</v>
       </c>
       <c r="I122" s="21" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="29.25">
@@ -7135,7 +7151,7 @@
         <v>217</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>300</v>
@@ -7164,7 +7180,7 @@
         <v>217</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>300</v>
@@ -7193,7 +7209,7 @@
         <v>217</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>300</v>
@@ -7210,8 +7226,8 @@
       <c r="H125" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I125" s="23" t="s">
-        <v>454</v>
+      <c r="I125" s="21" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="29.25">
@@ -7222,7 +7238,7 @@
         <v>217</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>300</v>
@@ -7251,7 +7267,7 @@
         <v>217</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>300</v>
@@ -7280,7 +7296,7 @@
         <v>217</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>300</v>
@@ -7309,7 +7325,7 @@
         <v>217</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D129" s="11" t="s">
         <v>300</v>
@@ -7326,8 +7342,8 @@
       <c r="H129" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I129" s="21" t="s">
-        <v>440</v>
+      <c r="I129" s="23" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="29.25">
@@ -7338,7 +7354,7 @@
         <v>217</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>300</v>
@@ -7367,7 +7383,7 @@
         <v>217</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D131" s="11" t="s">
         <v>300</v>
@@ -7396,7 +7412,7 @@
         <v>217</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D132" s="11" t="s">
         <v>300</v>
@@ -7425,7 +7441,7 @@
         <v>217</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D133" s="11" t="s">
         <v>300</v>
@@ -7446,7 +7462,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="57.75">
+    <row r="134" spans="1:9" ht="29.25">
       <c r="A134" s="10" t="s">
         <v>39</v>
       </c>
@@ -7454,7 +7470,7 @@
         <v>217</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D134" s="11" t="s">
         <v>300</v>
@@ -7472,10 +7488,10 @@
         <v>14</v>
       </c>
       <c r="I134" s="21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="29.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="57.75">
       <c r="A135" s="10" t="s">
         <v>39</v>
       </c>
@@ -7483,7 +7499,7 @@
         <v>217</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D135" s="11" t="s">
         <v>300</v>
@@ -7501,10 +7517,10 @@
         <v>14</v>
       </c>
       <c r="I135" s="21" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="57.75">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="29.25">
       <c r="A136" s="10" t="s">
         <v>39</v>
       </c>
@@ -7512,7 +7528,7 @@
         <v>217</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>300</v>
@@ -7530,10 +7546,10 @@
         <v>14</v>
       </c>
       <c r="I136" s="21" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="43.5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="57.75">
       <c r="A137" s="10" t="s">
         <v>39</v>
       </c>
@@ -7541,7 +7557,7 @@
         <v>217</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D137" s="11" t="s">
         <v>300</v>
@@ -7558,8 +7574,8 @@
       <c r="H137" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I137" s="20" t="s">
-        <v>445</v>
+      <c r="I137" s="21" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="43.5">
@@ -7570,7 +7586,7 @@
         <v>217</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D138" s="11" t="s">
         <v>300</v>
@@ -7599,7 +7615,7 @@
         <v>217</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>300</v>
@@ -7628,7 +7644,7 @@
         <v>217</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>300</v>
@@ -7649,7 +7665,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="29.25">
+    <row r="141" spans="1:9" ht="43.5">
       <c r="A141" s="10" t="s">
         <v>39</v>
       </c>
@@ -7657,7 +7673,7 @@
         <v>217</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>300</v>
@@ -7678,7 +7694,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="28.5">
+    <row r="142" spans="1:9" ht="29.25">
       <c r="A142" s="10" t="s">
         <v>39</v>
       </c>
@@ -7686,7 +7702,7 @@
         <v>217</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>300</v>
@@ -7703,11 +7719,11 @@
       <c r="H142" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I142" s="5" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="44.25">
+      <c r="I142" s="20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="28.5">
       <c r="A143" s="10" t="s">
         <v>39</v>
       </c>
@@ -7715,7 +7731,7 @@
         <v>217</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D143" s="11" t="s">
         <v>300</v>
@@ -7744,7 +7760,7 @@
         <v>217</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D144" s="11" t="s">
         <v>300</v>
@@ -7762,18 +7778,18 @@
         <v>14</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="58.5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="44.25">
       <c r="A145" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C145" s="15" t="s">
-        <v>347</v>
+      <c r="C145" s="11" t="s">
+        <v>346</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>300</v>
@@ -7802,7 +7818,7 @@
         <v>217</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D146" s="11" t="s">
         <v>300</v>
@@ -7831,7 +7847,7 @@
         <v>217</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>300</v>
@@ -7852,16 +7868,34 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="5"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
+    <row r="148" spans="1:9" ht="58.5">
+      <c r="A148" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H148" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="5"/>
@@ -7896,31 +7930,42 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
     </row>
-    <row r="152" spans="1:9" s="7" customFormat="1">
-      <c r="A152" s="31" t="s">
+    <row r="152" spans="1:9">
+      <c r="A152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="1:9" s="7" customFormat="1">
+      <c r="A153" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="B152" s="31"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="31"/>
-      <c r="F152" s="31"/>
-      <c r="G152" s="31"/>
-      <c r="H152" s="31"/>
-      <c r="I152" s="31"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="31"/>
+      <c r="I153" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A152:I152"/>
+    <mergeCell ref="A153:I153"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H147">
+  <conditionalFormatting sqref="A2:H148">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="TODO">
       <formula>NOT(ISERROR(SEARCH("TODO",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:E83">
+  <conditionalFormatting sqref="E78:E84">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="silabs">
-      <formula>NOT(ISERROR(SEARCH("silabs",E77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("silabs",E78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
